--- a/inst/extdata/ThresholdMapping.xlsx
+++ b/inst/extdata/ThresholdMapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\MassWateR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D238505-2FFD-4996-ABA0-43A37C0F6474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3935785A-4B90-4D08-99DE-B516D624DA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{178F5C9C-564C-4FDF-AA7C-E06704DA2294}"/>
+    <workbookView xWindow="5805" yWindow="3120" windowWidth="24855" windowHeight="12480" xr2:uid="{178F5C9C-564C-4FDF-AA7C-E06704DA2294}"/>
   </bookViews>
   <sheets>
     <sheet name="Thresholds by uom" sheetId="4" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="94">
   <si>
     <t>Water Temp</t>
   </si>
@@ -428,6 +428,15 @@
     <t>Based on MassBays review of scientific literature specific to shellfish and salt marsh habitat:
 Boulais M, Chenevert KJ, Demey AT, Darrow ES, Robison MR, Roberts JP, Volety A. Oyster reproduction is compromised by acidification experienced seasonally in coastal regions. Sci Rep. 2017 Oct 16;7(1):13276. doi: 10.1038/s41598-017-13480-3. PMID: 29038546; PMCID: PMC5643346. 
 George G. Waldbusser, Ryan A. Steenson, Mark A. Green "Oyster Shell Dissolution Rates in Estuarine Waters: Effects of pH and Shell Legacy," Journal of Shellfish Research, 30(3), 659-669, (1 December 2011)</t>
+  </si>
+  <si>
+    <t>STV Secondary contact (MADEP)</t>
+  </si>
+  <si>
+    <t>Simple Parameter</t>
+  </si>
+  <si>
+    <t>uom</t>
   </si>
 </sst>
 </file>
@@ -489,24 +498,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -834,983 +842,742 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0.05</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>C2*1000</f>
         <v>50</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <f>C2*1000/30.97</f>
         <v>1.614465611882467</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>C2</f>
         <v>0.05</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="5"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3">
         <v>5</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>C6*1000</f>
         <v>5000</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="E7" s="5"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3">
         <f>G6*1000</f>
         <v>5000</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>6.5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>7.5</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>8.5</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>28.3</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f>(77-32)*5/9</f>
         <v>25</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>29.4</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>C9*9/5+32</f>
         <v>68</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f>ROUND(E9*9/5+32,0)</f>
         <v>83</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f>G9*9/5+32</f>
         <v>77</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f>ROUND(I9*9/5+32,0)</f>
         <v>85</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>70</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="E11" s="5"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3">
         <v>70</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>350</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>C11</f>
         <v>70</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="E12" s="5"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3">
         <f>G11</f>
         <v>70</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <f>I11</f>
         <v>350</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>C11</f>
         <v>70</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="E13" s="5"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3">
         <f>G11</f>
         <v>70</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f>I11</f>
         <v>350</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>235</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>1260</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>C14</f>
         <v>235</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f>E14</f>
         <v>1260</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f>C14</f>
         <v>235</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f>E14</f>
         <v>1260</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>230</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>860</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f>C17*1000</f>
         <v>230000</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f>E17*1000</f>
         <v>860000</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <f>C17*1000/35.45</f>
         <v>6488.0112834978836</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <f>E17*1000/35.45</f>
         <v>24259.520451339915</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f>C17</f>
         <v>230</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f>E17</f>
         <v>860</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="C21" s="5"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3">
         <v>0.23300000000000001</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="C22" s="5"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3">
         <f>G21*1000</f>
         <v>233</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="C23" s="5"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="7">
         <f>G21*1000/14.01</f>
         <v>16.630977872947895</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="C24" s="5"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3">
         <f>G21</f>
         <v>0.23300000000000001</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="C25" s="5"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3">
         <v>0.35</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="C26" s="5"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3">
         <f>G25*1000</f>
         <v>350</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="C27" s="5"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6">
         <f>G25*1000/14.01</f>
         <v>24.982155603140615</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="C28" s="5"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3">
         <f>G25</f>
         <v>0.35</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="C29" s="5"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3">
         <v>5</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1832,881 +1599,880 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0.05</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>6.5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>7.5</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>8.5</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>28.3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>(77-32)*5/9</f>
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>29.4</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>70</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="3">
         <v>70</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>350</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>235</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>1260</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="G7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>230</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>860</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="G8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="C9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.23300000000000001</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="3">
         <v>0.35</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="3">
         <v>5</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="C13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="C14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="C17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="C24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="C26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2729,77 +2495,76 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="5" width="49.140625" style="2" customWidth="1"/>
-    <col min="6" max="11" width="8.7109375" style="2"/>
-    <col min="12" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="5" width="49.140625" style="1" customWidth="1"/>
+    <col min="6" max="11" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D4" t="s">
@@ -2808,192 +2573,192 @@
       <c r="E4" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>77</v>
       </c>
     </row>

--- a/inst/extdata/ThresholdMapping.xlsx
+++ b/inst/extdata/ThresholdMapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\MassWateR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbeck\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3935785A-4B90-4D08-99DE-B516D624DA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FD8F5A-A70C-42FB-9DCE-517BB2AD9F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="3120" windowWidth="24855" windowHeight="12480" xr2:uid="{178F5C9C-564C-4FDF-AA7C-E06704DA2294}"/>
+    <workbookView xWindow="34920" yWindow="3120" windowWidth="17280" windowHeight="8880" xr2:uid="{178F5C9C-564C-4FDF-AA7C-E06704DA2294}"/>
   </bookViews>
   <sheets>
     <sheet name="Thresholds by uom" sheetId="4" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="93">
   <si>
     <t>Water Temp</t>
   </si>
@@ -369,9 +369,6 @@
   </si>
   <si>
     <t>Class SA/SB/SC (MADEP)</t>
-  </si>
-  <si>
-    <t>STV Secondary contact (EPA)</t>
   </si>
   <si>
     <t>BAV Primary contact (EPA)</t>
@@ -839,32 +836,32 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21:D29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>38</v>
@@ -891,7 +888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -902,16 +899,28 @@
         <v>0.05</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -923,58 +932,94 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6">
         <f>C2*1000/30.97</f>
         <v>1.614465611882467</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3">
         <f>C2</f>
         <v>0.05</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -985,20 +1030,28 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1010,21 +1063,29 @@
         <v>5000</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G7" s="3">
         <f>G6*1000</f>
         <v>5000</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1035,28 +1096,28 @@
         <v>6.5</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="3">
         <v>8.3000000000000007</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="3">
         <v>7.5</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" s="3">
         <v>8.5</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1067,13 +1128,13 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="3">
         <v>28.3</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="3">
         <f>(77-32)*5/9</f>
@@ -1089,26 +1150,26 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3">
         <f>C9*9/5+32</f>
         <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3">
         <f>ROUND(E9*9/5+32,0)</f>
         <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="3">
         <f>G9*9/5+32</f>
@@ -1125,7 +1186,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1136,86 +1197,98 @@
         <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G11" s="3">
         <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="3">
         <v>350</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3">
         <f>C11</f>
         <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G12" s="3">
         <f>G11</f>
         <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="3">
         <f>I11</f>
         <v>350</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3">
         <f>C11</f>
         <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G13" s="3">
         <f>G11</f>
         <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I13" s="3">
         <f>I11</f>
         <v>350</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1226,72 +1299,96 @@
         <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3">
         <v>1260</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3">
         <f>C14</f>
         <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3">
         <f>E14</f>
         <v>1260</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3">
         <f>C14</f>
         <v>235</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3">
         <f>E14</f>
         <v>1260</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1310,12 +1407,20 @@
       <c r="F17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1336,17 +1441,25 @@
       <c r="F18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="7">
         <f>C17*1000/35.45</f>
@@ -1362,17 +1475,25 @@
       <c r="F19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="3">
         <f>C17</f>
@@ -1388,42 +1509,70 @@
       <c r="F20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G21" s="3">
         <v>0.23300000000000001</v>
       </c>
       <c r="H21" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G22" s="3">
         <f>G21*1000</f>
         <v>233</v>
@@ -1431,20 +1580,32 @@
       <c r="H22" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G23" s="7">
         <f>G21*1000/14.01</f>
         <v>16.630977872947895</v>
@@ -1452,20 +1613,32 @@
       <c r="H23" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G24" s="3">
         <f>G21</f>
         <v>0.23300000000000001</v>
@@ -1473,40 +1646,64 @@
       <c r="H24" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G25" s="3">
         <v>0.35</v>
       </c>
       <c r="H25" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G26" s="3">
         <f>G25*1000</f>
         <v>350</v>
@@ -1514,20 +1711,32 @@
       <c r="H26" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G27" s="6">
         <f>G25*1000/14.01</f>
         <v>24.982155603140615</v>
@@ -1535,20 +1744,32 @@
       <c r="H27" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G28" s="3">
         <f>G25</f>
         <v>0.35</v>
@@ -1556,28 +1777,44 @@
       <c r="H28" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G29" s="3">
         <v>5</v>
       </c>
       <c r="H29" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="2"/>
+      <c r="I29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1594,24 +1831,24 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1643,7 +1880,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1654,7 +1891,7 @@
         <v>0.05</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>53</v>
@@ -1675,7 +1912,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1686,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>53</v>
@@ -1698,7 +1935,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>53</v>
@@ -1707,7 +1944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1718,28 +1955,28 @@
         <v>6.5</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="3">
         <v>8.3000000000000007</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="3">
         <v>7.5</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4" s="3">
         <v>8.5</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1750,13 +1987,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="3">
         <v>28.3</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="3">
         <f>(77-32)*5/9</f>
@@ -1772,7 +2009,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1783,7 +2020,7 @@
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>53</v>
@@ -1795,16 +2032,16 @@
         <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="3">
         <v>350</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1815,13 +2052,13 @@
         <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="3">
         <v>1260</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>53</v>
@@ -1836,7 +2073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1868,7 +2105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1900,7 +2137,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1932,7 +2169,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1964,7 +2201,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1996,7 +2233,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2028,7 +2265,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2060,7 +2297,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2092,7 +2329,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2124,7 +2361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2156,7 +2393,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2188,7 +2425,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2220,7 +2457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2252,7 +2489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2521,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2316,7 +2553,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2348,7 +2585,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2380,7 +2617,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2412,7 +2649,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2444,7 +2681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2490,17 +2727,17 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="5" width="49.140625" style="1" customWidth="1"/>
-    <col min="6" max="11" width="8.7109375" style="1"/>
+    <col min="2" max="5" width="49.21875" style="1" customWidth="1"/>
+    <col min="6" max="11" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2517,12 +2754,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>53</v>
@@ -2534,10 +2771,10 @@
         <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2554,10 +2791,10 @@
         <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2568,16 +2805,16 @@
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2594,10 +2831,10 @@
         <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2614,10 +2851,10 @@
         <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2634,10 +2871,10 @@
         <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2654,10 +2891,10 @@
         <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2674,10 +2911,10 @@
         <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2694,10 +2931,10 @@
         <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2714,52 +2951,52 @@
         <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F13" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F14" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F15" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F16" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/ThresholdMapping.xlsx
+++ b/inst/extdata/ThresholdMapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbeck\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d8cbaaa4eaa566d/Documents/1 ACASAK/MassWateR/Design/Final logic docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FD8F5A-A70C-42FB-9DCE-517BB2AD9F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{F082DBB4-47A4-45CF-B4ED-08BFA2FB390F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA38137-8F40-4DD4-A81A-F4B04EA35375}"/>
   <bookViews>
-    <workbookView xWindow="34920" yWindow="3120" windowWidth="17280" windowHeight="8880" xr2:uid="{178F5C9C-564C-4FDF-AA7C-E06704DA2294}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{178F5C9C-564C-4FDF-AA7C-E06704DA2294}"/>
   </bookViews>
   <sheets>
     <sheet name="Thresholds by uom" sheetId="4" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="113">
   <si>
     <t>Water Temp</t>
   </si>
@@ -430,10 +430,70 @@
     <t>STV Secondary contact (MADEP)</t>
   </si>
   <si>
-    <t>Simple Parameter</t>
-  </si>
-  <si>
-    <t>uom</t>
+    <t>Phycocyanin</t>
+  </si>
+  <si>
+    <t>Phycoerythrin</t>
+  </si>
+  <si>
+    <t>Phycocyanin (probe)</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>TDP</t>
+  </si>
+  <si>
+    <t>Nitrite</t>
+  </si>
+  <si>
+    <t>PON</t>
+  </si>
+  <si>
+    <t>TDN</t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>Silicate</t>
+  </si>
+  <si>
+    <t>Sulfate</t>
+  </si>
+  <si>
+    <t>Secchi Depth</t>
+  </si>
+  <si>
+    <t>Pheophytin</t>
+  </si>
+  <si>
+    <t>FTU</t>
+  </si>
+  <si>
+    <t>Fecal Coliform</t>
+  </si>
+  <si>
+    <t>Surfactants</t>
+  </si>
+  <si>
+    <t>Microcystins</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Gage</t>
+  </si>
+  <si>
+    <t>Air Temp</t>
+  </si>
+  <si>
+    <t>ft</t>
   </si>
 </sst>
 </file>
@@ -537,9 +597,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -577,7 +637,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -683,7 +743,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -825,7 +885,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -835,33 +895,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBC442B-57CE-4E87-9948-D5DE60E20A6B}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>38</v>
@@ -888,7 +948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -920,7 +980,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -953,7 +1013,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -986,7 +1046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +1079,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1051,7 +1111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1117,7 +1177,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1210,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1246,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1218,7 +1278,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1253,7 +1313,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1348,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1320,7 +1380,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1388,7 +1448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1480,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1514,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1488,7 +1548,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1522,7 +1582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1554,7 +1614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1587,7 +1647,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1620,7 +1680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1653,7 +1713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1685,7 +1745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1718,7 +1778,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1751,7 +1811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1784,7 +1844,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1825,30 +1885,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39476CAE-E926-464A-A9FB-DFA2B123BCBD}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1880,7 +1940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1972,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1944,7 +2004,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1976,7 +2036,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +2069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2041,7 +2101,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2105,7 +2165,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2137,7 +2197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2169,7 +2229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2201,7 +2261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2233,7 +2293,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2265,7 +2325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2297,7 +2357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2329,7 +2389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2361,9 +2421,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -2393,9 +2453,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -2425,9 +2485,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -2457,9 +2517,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -2489,9 +2549,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -2521,9 +2581,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -2553,12 +2613,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>53</v>
@@ -2585,12 +2645,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>53</v>
@@ -2617,9 +2677,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -2649,9 +2709,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -2681,35 +2741,675 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B42" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="2" t="s">
+      <c r="C42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2730,14 +3430,14 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="5" width="49.21875" style="1" customWidth="1"/>
-    <col min="6" max="11" width="8.77734375" style="1"/>
+    <col min="2" max="5" width="49.140625" style="1" customWidth="1"/>
+    <col min="6" max="11" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2754,7 +3454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2774,7 +3474,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2794,7 +3494,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2814,7 +3514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2834,7 +3534,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2854,7 +3554,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2874,7 +3574,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2894,7 +3594,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2914,7 +3614,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2934,7 +3634,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2954,47 +3654,47 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F16" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>76</v>
       </c>
